--- a/biology/Botanique/Bérardie_laineuse/Bérardie_laineuse.xlsx
+++ b/biology/Botanique/Bérardie_laineuse/Bérardie_laineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B%C3%A9rardie_laineuse</t>
+          <t>Bérardie_laineuse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Berardia lanuginosa
 La bérardie laineuse (Berardia lanuginosa), bérardie ou " chardon de Bérard ", est une espèce de plante herbacée alpine de la famille des Asteraceae, seule espèce du genre Berardia.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B%C3%A9rardie_laineuse</t>
+          <t>Bérardie_laineuse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dédiée à Pierre Bérard, pharmacien grenoblois du XVIIe siècle.
 Synonyme : Berardia subacaulis Vill., 1779.</t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B%C3%A9rardie_laineuse</t>
+          <t>Bérardie_laineuse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Feuilles coriaces, arrondies, cotonneuses en dessous, disposées en rosette au centre de laquelle se développe un gros capitule (4 à 6 cm de diamètre) formé de fleurs jaunâtres.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B%C3%A9rardie_laineuse</t>
+          <t>Bérardie_laineuse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une endémique des Alpes sud-occidentales.Cette plante prestigieuse se rencontre à l'altitude de 1 500 à 3 100 mètres où elle se plaît dans les éboulis calcaires et schisteux. 
 Commune dans les Hautes-Alpes françaises, elle bénéficie néanmoins d'une protection nationale (Article 1).
